--- a/Single Name Pulls/single_names 2018-09-19.xlsx
+++ b/Single Name Pulls/single_names 2018-09-19.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="365">
   <si>
     <t>currentPrice</t>
   </si>
@@ -449,6 +449,9 @@
   </si>
   <si>
     <t>forwardEps</t>
+  </si>
+  <si>
+    <t>pegRatio</t>
   </si>
   <si>
     <t>NSP</t>
@@ -3577,13 +3580,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L103"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>136</v>
       </c>
@@ -3617,10 +3620,13 @@
       <c r="L1" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3650,15 +3656,18 @@
         <v>42</v>
       </c>
       <c r="K2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L2">
         <v>3.96</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3688,15 +3697,18 @@
         <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L3">
         <v>3.19</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3726,15 +3738,18 @@
         <v>43</v>
       </c>
       <c r="K4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L4">
         <v>2.58</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3764,15 +3779,18 @@
         <v>44</v>
       </c>
       <c r="K5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L5">
         <v>2.18</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3802,15 +3820,18 @@
         <v>45</v>
       </c>
       <c r="K6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L6">
         <v>1.37</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3840,15 +3861,18 @@
         <v>48</v>
       </c>
       <c r="K7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L7">
         <v>20.61</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3878,15 +3902,18 @@
         <v>45</v>
       </c>
       <c r="K8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L8">
         <v>7.84</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3916,15 +3943,18 @@
         <v>44</v>
       </c>
       <c r="K9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L9">
         <v>17.61</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3954,13 +3984,16 @@
         <v>48</v>
       </c>
       <c r="K10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L10">
         <v>29.53</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>92</v>
       </c>
@@ -3992,15 +4025,18 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L11">
         <v>2.07</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -4030,15 +4066,18 @@
         <v>44</v>
       </c>
       <c r="K12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L12">
         <v>6.16</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -4068,15 +4107,18 @@
         <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L13">
         <v>9.550000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4106,15 +4148,18 @@
         <v>43</v>
       </c>
       <c r="K14" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L14">
         <v>4.56</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -4144,15 +4189,18 @@
         <v>48</v>
       </c>
       <c r="K15" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L15">
         <v>1.94</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -4182,15 +4230,18 @@
         <v>44</v>
       </c>
       <c r="K16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L16">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -4220,13 +4271,16 @@
         <v>43</v>
       </c>
       <c r="K17" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L17">
         <v>4.46</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
         <v>57</v>
       </c>
@@ -4258,15 +4312,18 @@
         <v>42</v>
       </c>
       <c r="K18" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L18">
         <v>1.22</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4296,15 +4353,18 @@
         <v>42</v>
       </c>
       <c r="K19" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L19">
         <v>5.14</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -4334,15 +4394,18 @@
         <v>45</v>
       </c>
       <c r="K20" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L20">
         <v>5.65</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4372,15 +4435,18 @@
         <v>134</v>
       </c>
       <c r="K21" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L21">
         <v>4.11</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -4410,15 +4476,18 @@
         <v>44</v>
       </c>
       <c r="K22" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L22">
         <v>13.67</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -4448,15 +4517,18 @@
         <v>45</v>
       </c>
       <c r="K23" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L23">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -4486,15 +4558,18 @@
         <v>46</v>
       </c>
       <c r="K24" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L24">
         <v>3.87</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -4524,15 +4599,18 @@
         <v>44</v>
       </c>
       <c r="K25" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L25">
         <v>10.29</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -4562,15 +4640,18 @@
         <v>41</v>
       </c>
       <c r="K26" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L26">
         <v>2.85</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -4600,15 +4681,18 @@
         <v>45</v>
       </c>
       <c r="K27" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L27">
         <v>3.38</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4638,15 +4722,18 @@
         <v>48</v>
       </c>
       <c r="K28" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L28">
         <v>2.04</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4676,15 +4763,18 @@
         <v>44</v>
       </c>
       <c r="K29" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L29">
         <v>2.74</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -4714,15 +4804,18 @@
         <v>46</v>
       </c>
       <c r="K30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L30">
         <v>5.13</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4752,15 +4845,18 @@
         <v>48</v>
       </c>
       <c r="K31" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L31">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4790,15 +4886,18 @@
         <v>134</v>
       </c>
       <c r="K32" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L32">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32">
+        <v>2.24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4828,15 +4927,18 @@
         <v>42</v>
       </c>
       <c r="K33" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L33">
         <v>3.08</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -4866,15 +4968,18 @@
         <v>44</v>
       </c>
       <c r="K34" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L34">
         <v>12.79</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -4904,15 +5009,15 @@
         <v>48</v>
       </c>
       <c r="K35" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L35">
         <v>1.94</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -4942,15 +5047,18 @@
         <v>44</v>
       </c>
       <c r="K36" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L36">
         <v>3.15</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -4980,15 +5088,18 @@
         <v>48</v>
       </c>
       <c r="K37" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L37">
         <v>2.86</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -5018,15 +5129,18 @@
         <v>42</v>
       </c>
       <c r="K38" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L38">
         <v>2.87</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -5056,15 +5170,18 @@
         <v>48</v>
       </c>
       <c r="K39" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L39">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -5094,15 +5211,18 @@
         <v>49</v>
       </c>
       <c r="K40" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L40">
         <v>8.369999999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -5132,15 +5252,18 @@
         <v>48</v>
       </c>
       <c r="K41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L41">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -5170,15 +5293,18 @@
         <v>42</v>
       </c>
       <c r="K42" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L42">
         <v>3.06</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -5208,15 +5334,18 @@
         <v>44</v>
       </c>
       <c r="K43" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L43">
         <v>5.49</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -5246,15 +5375,18 @@
         <v>48</v>
       </c>
       <c r="K44" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L44">
         <v>8.880000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -5284,15 +5416,18 @@
         <v>44</v>
       </c>
       <c r="K45" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L45">
         <v>4.65</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="M45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -5322,15 +5457,18 @@
         <v>48</v>
       </c>
       <c r="K46" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L46">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="M46">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -5360,15 +5498,18 @@
         <v>48</v>
       </c>
       <c r="K47" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L47">
         <v>4.61</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="M47">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -5398,15 +5539,18 @@
         <v>48</v>
       </c>
       <c r="K48" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L48">
         <v>3.21</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="M48">
+        <v>-10.64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -5436,15 +5580,18 @@
         <v>48</v>
       </c>
       <c r="K49" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L49">
         <v>5.66</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="M49">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -5474,15 +5621,18 @@
         <v>47</v>
       </c>
       <c r="K50" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L50">
         <v>2.31</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="M50">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -5512,15 +5662,18 @@
         <v>42</v>
       </c>
       <c r="K51" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L51">
         <v>20.22</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="M51">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -5550,15 +5703,18 @@
         <v>48</v>
       </c>
       <c r="K52" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L52">
         <v>5.08</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="M52">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -5588,15 +5744,18 @@
         <v>48</v>
       </c>
       <c r="K53" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L53">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="M53">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -5626,15 +5785,18 @@
         <v>41</v>
       </c>
       <c r="K54" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L54">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="M54">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -5664,15 +5826,18 @@
         <v>46</v>
       </c>
       <c r="K55" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L55">
         <v>6.86</v>
       </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="M55">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -5702,15 +5867,18 @@
         <v>41</v>
       </c>
       <c r="K56" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L56">
         <v>2.59</v>
       </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="M56">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -5740,15 +5908,18 @@
         <v>49</v>
       </c>
       <c r="K57" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L57">
         <v>4.26</v>
       </c>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="M57">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -5778,15 +5949,18 @@
         <v>48</v>
       </c>
       <c r="K58" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L58">
         <v>1.57</v>
       </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="M58">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -5816,15 +5990,18 @@
         <v>48</v>
       </c>
       <c r="K59" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L59">
         <v>5.07</v>
       </c>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="M59">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -5854,15 +6031,18 @@
         <v>48</v>
       </c>
       <c r="K60" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L60">
         <v>4.82</v>
       </c>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="M60">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -5892,15 +6072,18 @@
         <v>48</v>
       </c>
       <c r="K61" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L61">
         <v>4.35</v>
       </c>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="M61">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -5930,13 +6113,16 @@
         <v>134</v>
       </c>
       <c r="K62" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L62">
         <v>14.94</v>
       </c>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="M62">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,15 +6154,18 @@
         <v>42</v>
       </c>
       <c r="K63" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L63">
         <v>4.72</v>
       </c>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="M63">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -6006,15 +6195,15 @@
         <v>41</v>
       </c>
       <c r="K64" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L64">
         <v>9.33</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -6044,15 +6233,18 @@
         <v>48</v>
       </c>
       <c r="K65" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L65">
         <v>17.95</v>
       </c>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="M65">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -6082,15 +6274,18 @@
         <v>44</v>
       </c>
       <c r="K66" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L66">
         <v>2.57</v>
       </c>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="M66">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -6120,15 +6315,18 @@
         <v>46</v>
       </c>
       <c r="K67" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L67">
         <v>10.41</v>
       </c>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="M67">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -6158,15 +6356,18 @@
         <v>46</v>
       </c>
       <c r="K68" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L68">
         <v>1.98</v>
       </c>
-    </row>
-    <row r="69" spans="1:12">
+      <c r="M68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -6196,15 +6397,18 @@
         <v>46</v>
       </c>
       <c r="K69" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L69">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="M69">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -6234,15 +6438,15 @@
         <v>41</v>
       </c>
       <c r="K70" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L70">
         <v>0.58</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -6272,15 +6476,18 @@
         <v>41</v>
       </c>
       <c r="K71" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L71">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="72" spans="1:12">
+      <c r="M71">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -6310,15 +6517,18 @@
         <v>41</v>
       </c>
       <c r="K72" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L72">
         <v>3.26</v>
       </c>
-    </row>
-    <row r="73" spans="1:12">
+      <c r="M72">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -6348,15 +6558,18 @@
         <v>42</v>
       </c>
       <c r="K73" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L73">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="74" spans="1:12">
+      <c r="M73">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -6386,15 +6599,18 @@
         <v>41</v>
       </c>
       <c r="K74" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L74">
         <v>1.83</v>
       </c>
-    </row>
-    <row r="75" spans="1:12">
+      <c r="M74">
+        <v>-5.46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -6424,15 +6640,18 @@
         <v>41</v>
       </c>
       <c r="K75" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L75">
         <v>2.42</v>
       </c>
-    </row>
-    <row r="76" spans="1:12">
+      <c r="M75">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -6462,13 +6681,16 @@
         <v>45</v>
       </c>
       <c r="K76" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L76">
         <v>9.74</v>
       </c>
-    </row>
-    <row r="77" spans="1:12">
+      <c r="M76">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
         <v>56</v>
       </c>
@@ -6500,15 +6722,18 @@
         <v>48</v>
       </c>
       <c r="K77" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L77">
         <v>5.18</v>
       </c>
-    </row>
-    <row r="78" spans="1:12">
+      <c r="M77">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -6538,15 +6763,18 @@
         <v>44</v>
       </c>
       <c r="K78" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L78">
         <v>2.86</v>
       </c>
-    </row>
-    <row r="79" spans="1:12">
+      <c r="M78">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -6576,15 +6804,15 @@
         <v>48</v>
       </c>
       <c r="K79" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L79">
         <v>2.62</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -6614,15 +6842,18 @@
         <v>41</v>
       </c>
       <c r="K80" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L80">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:12">
+      <c r="M80">
+        <v>-3.29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -6652,15 +6883,18 @@
         <v>41</v>
       </c>
       <c r="K81" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L81">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="82" spans="1:12">
+      <c r="M81">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -6690,15 +6924,18 @@
         <v>42</v>
       </c>
       <c r="K82" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L82">
         <v>9.25</v>
       </c>
-    </row>
-    <row r="83" spans="1:12">
+      <c r="M82">
+        <v>5.63</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -6728,15 +6965,18 @@
         <v>135</v>
       </c>
       <c r="K83" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L83">
         <v>1.17</v>
       </c>
-    </row>
-    <row r="84" spans="1:12">
+      <c r="M83">
+        <v>-0.66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -6766,15 +7006,18 @@
         <v>43</v>
       </c>
       <c r="K84" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L84">
         <v>5.37</v>
       </c>
-    </row>
-    <row r="85" spans="1:12">
+      <c r="M84">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -6804,15 +7047,15 @@
         <v>48</v>
       </c>
       <c r="K85" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L85">
         <v>0.35</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -6842,15 +7085,18 @@
         <v>48</v>
       </c>
       <c r="K86" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L86">
         <v>4.48</v>
       </c>
-    </row>
-    <row r="87" spans="1:12">
+      <c r="M86">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -6880,15 +7126,18 @@
         <v>44</v>
       </c>
       <c r="K87" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L87">
         <v>9.42</v>
       </c>
-    </row>
-    <row r="88" spans="1:12">
+      <c r="M87">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -6918,15 +7167,18 @@
         <v>41</v>
       </c>
       <c r="K88" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L88">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="89" spans="1:12">
+      <c r="M88">
+        <v>-3.32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -6956,15 +7208,18 @@
         <v>48</v>
       </c>
       <c r="K89" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L89">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="90" spans="1:12">
+      <c r="M89">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -6997,9 +7252,9 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -7029,15 +7284,18 @@
         <v>48</v>
       </c>
       <c r="K91" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L91">
         <v>6.91</v>
       </c>
-    </row>
-    <row r="92" spans="1:12">
+      <c r="M91">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -7067,15 +7325,18 @@
         <v>41</v>
       </c>
       <c r="K92" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L92">
         <v>0.8100000000000001</v>
       </c>
-    </row>
-    <row r="93" spans="1:12">
+      <c r="M92">
+        <v>-3.98</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -7105,15 +7366,18 @@
         <v>49</v>
       </c>
       <c r="K93" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L93">
         <v>4.24</v>
       </c>
-    </row>
-    <row r="94" spans="1:12">
+      <c r="M93">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -7146,9 +7410,9 @@
         <v>2.28</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -7178,15 +7442,18 @@
         <v>44</v>
       </c>
       <c r="K95" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L95">
         <v>1.18</v>
       </c>
-    </row>
-    <row r="96" spans="1:12">
+      <c r="M95">
+        <v>48.34</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -7216,15 +7483,18 @@
         <v>44</v>
       </c>
       <c r="K96" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L96">
         <v>4.15</v>
       </c>
-    </row>
-    <row r="97" spans="1:12">
+      <c r="M96">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -7254,15 +7524,18 @@
         <v>48</v>
       </c>
       <c r="K97" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L97">
         <v>2.44</v>
       </c>
-    </row>
-    <row r="98" spans="1:12">
+      <c r="M97">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -7292,15 +7565,18 @@
         <v>46</v>
       </c>
       <c r="K98" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L98">
         <v>4.78</v>
       </c>
-    </row>
-    <row r="99" spans="1:12">
+      <c r="M98">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -7330,13 +7606,16 @@
         <v>42</v>
       </c>
       <c r="K99" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L99">
         <v>10.87</v>
       </c>
-    </row>
-    <row r="100" spans="1:12">
+      <c r="M99">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
         <v>54</v>
       </c>
@@ -7368,15 +7647,18 @@
         <v>45</v>
       </c>
       <c r="K100" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L100">
         <v>4.39</v>
       </c>
-    </row>
-    <row r="101" spans="1:12">
+      <c r="M100">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -7406,15 +7688,18 @@
         <v>47</v>
       </c>
       <c r="K101" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L101">
         <v>1.38</v>
       </c>
-    </row>
-    <row r="102" spans="1:12">
+      <c r="M101">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -7444,15 +7729,18 @@
         <v>135</v>
       </c>
       <c r="K102" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L102">
         <v>1.32</v>
       </c>
-    </row>
-    <row r="103" spans="1:12">
+      <c r="M102">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -7482,10 +7770,13 @@
         <v>48</v>
       </c>
       <c r="K103" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L103">
         <v>1.34</v>
+      </c>
+      <c r="M103">
+        <v>5.44</v>
       </c>
     </row>
   </sheetData>
@@ -7495,13 +7786,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>136</v>
       </c>
@@ -7535,10 +7826,13 @@
       <c r="L1" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7568,15 +7862,15 @@
         <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L2">
         <v>4.28</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -7606,15 +7900,18 @@
         <v>48</v>
       </c>
       <c r="K3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L3">
         <v>2.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -7644,15 +7941,18 @@
         <v>43</v>
       </c>
       <c r="K4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L4">
         <v>2.59</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>-3.44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -7682,15 +7982,18 @@
         <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L5">
         <v>3.26</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -7720,15 +8023,18 @@
         <v>47</v>
       </c>
       <c r="K6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L6">
         <v>5.55</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -7758,15 +8064,15 @@
         <v>48</v>
       </c>
       <c r="K7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L7">
         <v>1.94</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -7796,15 +8102,18 @@
         <v>48</v>
       </c>
       <c r="K8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L8">
         <v>4.01</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -7834,15 +8143,18 @@
         <v>48</v>
       </c>
       <c r="K9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L9">
         <v>7.39</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -7872,15 +8184,18 @@
         <v>48</v>
       </c>
       <c r="K10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L10">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -7910,15 +8225,18 @@
         <v>48</v>
       </c>
       <c r="K11" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L11">
         <v>4.34</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -7948,15 +8266,18 @@
         <v>41</v>
       </c>
       <c r="K12" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L12">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -7986,15 +8307,18 @@
         <v>41</v>
       </c>
       <c r="K13" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L13">
         <v>1.79</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -8024,15 +8348,18 @@
         <v>48</v>
       </c>
       <c r="K14" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L14">
         <v>6.32</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -8062,15 +8389,18 @@
         <v>43</v>
       </c>
       <c r="K15" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L15">
         <v>3.48</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B16">
         <v>1</v>

--- a/Single Name Pulls/single_names 2018-09-19.xlsx
+++ b/Single Name Pulls/single_names 2018-09-19.xlsx
@@ -1511,7 +1511,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>28.45</v>
+        <v>27.49</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -1528,7 +1528,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>26.56</v>
+        <v>25.88</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -1545,7 +1545,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>113.95</v>
+        <v>111.36</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -1562,7 +1562,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1579,7 +1579,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>69.86</v>
+        <v>70.33</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -1596,7 +1596,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>80.15000000000001</v>
+        <v>80.38</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -1613,7 +1613,7 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>64.41</v>
+        <v>64.51000000000001</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -1630,7 +1630,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>41.07</v>
+        <v>40.96</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -1647,7 +1647,7 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>30.48</v>
+        <v>29.93</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -1664,7 +1664,7 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>7.71</v>
+        <v>7.7</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -1681,7 +1681,7 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>39.09</v>
+        <v>38.68</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -1698,7 +1698,7 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>60.42</v>
+        <v>60.21</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -1715,7 +1715,7 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>64.88</v>
+        <v>64</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -1732,7 +1732,7 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>48.22</v>
+        <v>47.91</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -1749,7 +1749,7 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>39.87</v>
+        <v>39.35</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -1766,7 +1766,7 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>33.4</v>
+        <v>33.52</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -1783,7 +1783,7 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>27.23</v>
+        <v>27.17</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -1800,7 +1800,7 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>51</v>
+        <v>51.64</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -1817,7 +1817,7 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>3.45</v>
+        <v>3.46</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -1834,7 +1834,7 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>41.895</v>
+        <v>41.86</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -1851,7 +1851,7 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>44.81</v>
+        <v>44.56</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -1868,7 +1868,7 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>9.529999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -1885,7 +1885,7 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>26.42</v>
+        <v>26.29</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -1919,7 +1919,7 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>43.98</v>
+        <v>43.88</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -1936,7 +1936,7 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>244.5</v>
+        <v>245.6</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -1953,7 +1953,7 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>104.01</v>
+        <v>103.99</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -1970,7 +1970,7 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>79.59</v>
+        <v>79.31</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -1987,7 +1987,7 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>76.66</v>
+        <v>76.79000000000001</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -2004,7 +2004,7 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>43.53</v>
+        <v>43.36</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -2038,7 +2038,7 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>42.615</v>
+        <v>42.27</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -2055,7 +2055,7 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>11.91</v>
+        <v>11.97</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -2072,7 +2072,7 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>51.28</v>
+        <v>52.32</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -2106,7 +2106,7 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.17</v>
+        <v>0.185</v>
       </c>
       <c r="C38">
         <v>4</v>
